--- a/src/assets/excel_files/products.xlsx
+++ b/src/assets/excel_files/products.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>Product Name *</t>
   </si>
@@ -33,30 +33,46 @@
   <si>
     <t>Product Code</t>
   </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>very awesome</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,7 +80,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Cambria"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -72,112 +88,112 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,175 +206,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -368,15 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -392,8 +412,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,25 +449,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +478,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,99 +507,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -853,24 +914,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -893,27 +954,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>45777</v>
-      </c>
-      <c r="E2">
-        <v>51</v>
-      </c>
-      <c r="F2">
-        <v>55585</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>